--- a/EstrogenReceptorsComparison/EstrogenReceptors.xlsx
+++ b/EstrogenReceptorsComparison/EstrogenReceptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlutsky/Desktop/School/CMU/Research/Kinome/EstrogenReceptorsComparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7D3956-3970-5B4D-993D-E86B4F8B58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91D788-39C7-DF4A-802B-839515D7572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="436">
   <si>
     <t>Search results from PDBbind-CN Database</t>
   </si>
@@ -1298,13 +1298,43 @@
   </si>
   <si>
     <t>Oc1ccc(cc1)[C@H]1[C@@H](Oc2c([C@@H]1C)ccc(c2)O)c1ccc(cc1)OCC[NH+]1CCCC1</t>
+  </si>
+  <si>
+    <t>Agonist/Antagonist</t>
+  </si>
+  <si>
+    <t>Agonist</t>
+  </si>
+  <si>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>Antagonist</t>
+  </si>
+  <si>
+    <t>Mixed/NA</t>
+  </si>
+  <si>
+    <t>Agonist?</t>
+  </si>
+  <si>
+    <t>Agonist??</t>
+  </si>
+  <si>
+    <t>4q13</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>2zbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1315,12 +1345,20 @@
       <sz val="20"/>
       <color rgb="FF3B5998"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1349,13 +1387,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1722,7 @@
     <col min="27" max="27" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1741,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1784,8 +1823,11 @@
       <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1867,8 +1909,11 @@
       <c r="AA3" t="s">
         <v>38</v>
       </c>
+      <c r="AB3" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1893,7 +1938,7 @@
       <c r="H4">
         <v>1998</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J4" t="s">
@@ -1947,11 +1992,14 @@
       <c r="Z4">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="AB4" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1976,7 +2024,7 @@
       <c r="H5">
         <v>2002</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J5" t="s">
@@ -2030,11 +2078,14 @@
       <c r="Z5">
         <v>2</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AB5" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2071,10 +2122,10 @@
       <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
@@ -2110,11 +2161,14 @@
       <c r="Z6">
         <v>41</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="AB6" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2154,7 +2208,7 @@
       <c r="N7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="P7" t="s">
@@ -2193,8 +2247,11 @@
       <c r="AA7" t="s">
         <v>62</v>
       </c>
+      <c r="AB7" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2234,7 +2291,7 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="O8" t="s">
@@ -2273,11 +2330,14 @@
       <c r="Z8">
         <v>11</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="AB8" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2359,8 +2419,11 @@
       <c r="AA9" t="s">
         <v>75</v>
       </c>
+      <c r="AB9" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2388,7 +2451,7 @@
       <c r="I10" t="s">
         <v>78</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K10">
@@ -2442,8 +2505,11 @@
       <c r="AA10" t="s">
         <v>45</v>
       </c>
+      <c r="AB10" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2525,8 +2591,11 @@
       <c r="AA11" t="s">
         <v>86</v>
       </c>
+      <c r="AB11" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2608,8 +2677,11 @@
       <c r="AA12" t="s">
         <v>91</v>
       </c>
+      <c r="AB12" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2691,8 +2763,11 @@
       <c r="AA13" t="s">
         <v>96</v>
       </c>
+      <c r="AB13" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2774,8 +2849,11 @@
       <c r="AA14" t="s">
         <v>99</v>
       </c>
+      <c r="AB14" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2857,8 +2935,11 @@
       <c r="AA15" t="s">
         <v>104</v>
       </c>
+      <c r="AB15" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2934,11 +3015,14 @@
       <c r="Z16">
         <v>7</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="AB16" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3021,7 +3105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3104,7 +3188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3186,8 +3270,11 @@
       <c r="AA19" t="s">
         <v>123</v>
       </c>
+      <c r="AB19" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3270,7 +3357,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3353,7 +3440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3432,8 +3519,11 @@
       <c r="AA22" t="s">
         <v>138</v>
       </c>
+      <c r="AB22" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3512,8 +3602,11 @@
       <c r="AA23" t="s">
         <v>142</v>
       </c>
+      <c r="AB23" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3592,8 +3685,11 @@
       <c r="AA24" t="s">
         <v>146</v>
       </c>
+      <c r="AB24" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3672,8 +3768,11 @@
       <c r="AA25" t="s">
         <v>150</v>
       </c>
+      <c r="AB25" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3755,8 +3854,11 @@
       <c r="AA26" t="s">
         <v>156</v>
       </c>
+      <c r="AB26" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3838,8 +3940,11 @@
       <c r="AA27" t="s">
         <v>162</v>
       </c>
+      <c r="AB27" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3921,8 +4026,11 @@
       <c r="AA28" t="s">
         <v>166</v>
       </c>
+      <c r="AB28" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4004,8 +4112,11 @@
       <c r="AA29" t="s">
         <v>171</v>
       </c>
+      <c r="AB29" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4087,8 +4198,11 @@
       <c r="AA30" t="s">
         <v>176</v>
       </c>
+      <c r="AB30" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4170,8 +4284,11 @@
       <c r="AA31" t="s">
         <v>183</v>
       </c>
+      <c r="AB31" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4253,8 +4370,11 @@
       <c r="AA32" t="s">
         <v>187</v>
       </c>
+      <c r="AB32" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AA33" t="s">
         <v>194</v>
       </c>
+      <c r="AB33" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4416,8 +4539,11 @@
       <c r="AA34" t="s">
         <v>200</v>
       </c>
+      <c r="AB34" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4499,8 +4625,11 @@
       <c r="AA35" t="s">
         <v>204</v>
       </c>
+      <c r="AB35" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4582,8 +4711,11 @@
       <c r="AA36" t="s">
         <v>210</v>
       </c>
+      <c r="AB36" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4665,8 +4797,11 @@
       <c r="AA37" t="s">
         <v>216</v>
       </c>
+      <c r="AB37" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4748,8 +4883,11 @@
       <c r="AA38" t="s">
         <v>216</v>
       </c>
+      <c r="AB38" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4831,8 +4969,11 @@
       <c r="AA39" t="s">
         <v>226</v>
       </c>
+      <c r="AB39" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4914,8 +5055,11 @@
       <c r="AA40" t="s">
         <v>231</v>
       </c>
+      <c r="AB40" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4997,8 +5141,11 @@
       <c r="AA41" t="s">
         <v>38</v>
       </c>
+      <c r="AB41" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5080,8 +5227,11 @@
       <c r="AA42" t="s">
         <v>242</v>
       </c>
+      <c r="AB42" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5163,8 +5313,11 @@
       <c r="AA43" t="s">
         <v>247</v>
       </c>
+      <c r="AB43" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5246,8 +5399,11 @@
       <c r="AA44" t="s">
         <v>253</v>
       </c>
+      <c r="AB44" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5329,8 +5485,11 @@
       <c r="AA45" t="s">
         <v>258</v>
       </c>
+      <c r="AB45" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5412,8 +5571,11 @@
       <c r="AA46" t="s">
         <v>264</v>
       </c>
+      <c r="AB46" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5495,8 +5657,11 @@
       <c r="AA47" t="s">
         <v>132</v>
       </c>
+      <c r="AB47" s="4" t="s">
+        <v>432</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5578,8 +5743,11 @@
       <c r="AA48" t="s">
         <v>242</v>
       </c>
+      <c r="AB48" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5661,8 +5829,11 @@
       <c r="AA49" t="s">
         <v>278</v>
       </c>
+      <c r="AB49" s="4" t="s">
+        <v>432</v>
+      </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5744,8 +5915,11 @@
       <c r="AA50" t="s">
         <v>284</v>
       </c>
+      <c r="AB50" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5827,12 +6001,15 @@
       <c r="AA51" t="s">
         <v>264</v>
       </c>
+      <c r="AB51" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C52" t="s">
@@ -5853,7 +6030,7 @@
       <c r="H52">
         <v>2008</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="4" t="s">
         <v>289</v>
       </c>
       <c r="J52" t="s">
@@ -5910,8 +6087,11 @@
       <c r="AA52" t="s">
         <v>295</v>
       </c>
+      <c r="AB52" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5993,8 +6173,11 @@
       <c r="AA53" t="s">
         <v>301</v>
       </c>
+      <c r="AB53" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6076,8 +6259,11 @@
       <c r="AA54" t="s">
         <v>306</v>
       </c>
+      <c r="AB54" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6159,8 +6345,11 @@
       <c r="AA55" t="s">
         <v>313</v>
       </c>
+      <c r="AB55" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6242,8 +6431,11 @@
       <c r="AA56" t="s">
         <v>319</v>
       </c>
+      <c r="AB56" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6325,8 +6517,11 @@
       <c r="AA57" t="s">
         <v>323</v>
       </c>
+      <c r="AB57" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6408,8 +6603,11 @@
       <c r="AA58" t="s">
         <v>38</v>
       </c>
+      <c r="AB58" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6491,8 +6689,11 @@
       <c r="AA59" t="s">
         <v>333</v>
       </c>
+      <c r="AB59" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6574,8 +6775,11 @@
       <c r="AA60" t="s">
         <v>340</v>
       </c>
+      <c r="AB60" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6657,8 +6861,11 @@
       <c r="AA61" t="s">
         <v>344</v>
       </c>
+      <c r="AB61" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6740,8 +6947,11 @@
       <c r="AA62" t="s">
         <v>348</v>
       </c>
+      <c r="AB62" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6823,8 +7033,11 @@
       <c r="AA63" t="s">
         <v>352</v>
       </c>
+      <c r="AB63" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6906,8 +7119,11 @@
       <c r="AA64" t="s">
         <v>358</v>
       </c>
+      <c r="AB64" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6989,8 +7205,11 @@
       <c r="AA65" t="s">
         <v>363</v>
       </c>
+      <c r="AB65" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7072,8 +7291,11 @@
       <c r="AA66" t="s">
         <v>367</v>
       </c>
+      <c r="AB66" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7155,8 +7377,11 @@
       <c r="AA67" t="s">
         <v>371</v>
       </c>
+      <c r="AB67" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7238,8 +7463,11 @@
       <c r="AA68" t="s">
         <v>375</v>
       </c>
+      <c r="AB68" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7321,8 +7549,11 @@
       <c r="AA69" t="s">
         <v>381</v>
       </c>
+      <c r="AB69" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7404,8 +7635,11 @@
       <c r="AA70" t="s">
         <v>385</v>
       </c>
+      <c r="AB70" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7487,8 +7721,11 @@
       <c r="AA71" t="s">
         <v>388</v>
       </c>
+      <c r="AB71" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7570,8 +7807,11 @@
       <c r="AA72" t="s">
         <v>394</v>
       </c>
+      <c r="AB72" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7653,8 +7893,11 @@
       <c r="AA73" t="s">
         <v>398</v>
       </c>
+      <c r="AB73" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7737,7 +7980,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7820,7 +8063,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7900,7 +8143,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7979,8 +8222,11 @@
       <c r="AA77" t="s">
         <v>419</v>
       </c>
+      <c r="AB77" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -8058,6 +8304,31 @@
       </c>
       <c r="AA78" t="s">
         <v>425</v>
+      </c>
+      <c r="AB78" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
